--- a/biology/Botanique/Jardin_botanique_tropical_de_Nong_Nooch/Jardin_botanique_tropical_de_Nong_Nooch.xlsx
+++ b/biology/Botanique/Jardin_botanique_tropical_de_Nong_Nooch/Jardin_botanique_tropical_de_Nong_Nooch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le jardin botanique tropical de Nong Nooch est un jardin botanique et une attraction touristique situés à 17 kilomètres du centre de Pattaya au nord et 18 kilomètres de Sattahip au sud,  dans la province de Chonburi en Thaïlande[1]. 
+Le jardin botanique tropical de Nong Nooch est un jardin botanique et une attraction touristique situés à 17 kilomètres du centre de Pattaya au nord et 18 kilomètres de Sattahip au sud,  dans la province de Chonburi en Thaïlande. 
 C'est aussi un centre scientifique majeur dédié aux Cycas (plantes arborescentes de l'embranchement des Cycadophytes.)
 Une partie des jardins est aménagée de passerelles suspendues et de tours d‘observation, permettant une vue d’ensemble du parc.
 Le jardin botanique tropical de Nong Nooch est le plus grand jardin botanique en Asie du Sud-Est.
@@ -517,10 +529,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1954, Mr.Pisit et Mme Nongnooch Tansacha acquièrent environ 242 hectares de terres sur la route de Sukhumvit, pour exploiter une plantation de fruits. Lors d’un voyage à l’étranger, Mme Nongnooch  est enflammée par la beauté de nombreux jardins de renommée mondiale et décide de transformer son bien en un jardin tropical de fleurs et de plantes ornementales.
-Le jardin fut ouvert au public en 1980, et la gestion transférée à  son fils M. Kampon Tansacha en 2001[2]. 
+Le jardin fut ouvert au public en 1980, et la gestion transférée à  son fils M. Kampon Tansacha en 2001. 
 </t>
         </is>
       </c>
@@ -549,10 +563,12 @@
           <t>Les différents jardins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parsemé de passerelles et de ponts, le parc est structuré en différentes zones qui permettent  au visiteur d'effectuer un parcours agréable et rationnel.
-Parmi les principaux secteurs, il faut retenir les jardins français et européens, les jardins de Broméliacées et d’Orchidées (670 essences répertoriées), le jardin des poteries, la colline des papillons, la vallée des dinosaures[3]…
+Parmi les principaux secteurs, il faut retenir les jardins français et européens, les jardins de Broméliacées et d’Orchidées (670 essences répertoriées), le jardin des poteries, la colline des papillons, la vallée des dinosaures…
 	Jardins
 			Jardin des poteries
 			Jardin français
@@ -587,9 +603,11 @@
           <t>Espèces botaniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin botanique tropical de Nong Nooch consacre un effort  important à la gestion  des espèces des plantes en culture. La direction du Parc et les autres institutions participantes travaillent ensemble pour préserver à long terme la diversité génétique dans les populations cultivées,  ainsi que protéger les espèces très menacées[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin botanique tropical de Nong Nooch consacre un effort  important à la gestion  des espèces des plantes en culture. La direction du Parc et les autres institutions participantes travaillent ensemble pour préserver à long terme la diversité génétique dans les populations cultivées,  ainsi que protéger les espèces très menacées.
 Quelques espèces présentes :
 Heliconia - Zingiberales  - Cactus - Cycas - Palm - Rhapis  - Wrightia tomentosa - Bougainvillea - Creepers - Climbers - Hoya
 	Palmiers et autres
